--- a/BackTest/2020-01-11 BackTest PLY.xlsx
+++ b/BackTest/2020-01-11 BackTest PLY.xlsx
@@ -2656,13 +2656,17 @@
         <v>3.943099999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.895</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2691,14 +2695,22 @@
         <v>3.941883333333332</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2726,14 +2738,22 @@
         <v>3.940349999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2781,22 @@
         <v>3.939049999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,12 +2830,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.89</v>
+        <v>3.897</v>
       </c>
       <c r="K69" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+        <v>3.895</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2835,20 +2867,18 @@
         <v>3.936866666666665</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.89</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2884,14 +2914,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.862</v>
+        <v>3.89</v>
       </c>
       <c r="K71" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2921,20 +2951,18 @@
         <v>3.934599999999997</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.872</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -2964,16 +2992,14 @@
         <v>3.932599999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.872</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3007,16 +3033,14 @@
         <v>3.930783333333331</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3.862</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3050,16 +3074,14 @@
         <v>3.92878333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3.862</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3093,16 +3115,14 @@
         <v>3.926566666666664</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.862</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3136,16 +3156,14 @@
         <v>3.924599999999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.865</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3179,16 +3197,14 @@
         <v>3.923333333333331</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3222,16 +3238,14 @@
         <v>3.922299999999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3265,16 +3279,14 @@
         <v>3.920866666666664</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3308,16 +3320,14 @@
         <v>3.918749999999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3.865</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3351,16 +3361,14 @@
         <v>3.917316666666665</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3394,16 +3402,14 @@
         <v>3.915133333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3.865</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3437,16 +3443,14 @@
         <v>3.913533333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.897</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3480,16 +3484,14 @@
         <v>3.912216666666665</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3.896</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3523,16 +3525,14 @@
         <v>3.911833333333332</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3566,16 +3566,14 @@
         <v>3.909649999999998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>3.862</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3609,16 +3607,14 @@
         <v>3.907499999999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.865</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3652,16 +3648,14 @@
         <v>3.906066666666665</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>3.917</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3695,16 +3689,14 @@
         <v>3.904766666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>3.866</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3738,16 +3730,14 @@
         <v>3.903466666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>3.866</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3781,16 +3771,14 @@
         <v>3.9029</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>3.906</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3824,16 +3812,14 @@
         <v>3.902566666666666</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.904</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3867,16 +3853,14 @@
         <v>3.902683333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.918</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3910,16 +3894,14 @@
         <v>3.902483333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.932</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3953,16 +3935,14 @@
         <v>3.901899999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.909</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3996,16 +3976,14 @@
         <v>3.902016666666666</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.942</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4039,16 +4017,14 @@
         <v>3.90175</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.928</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4082,16 +4058,14 @@
         <v>3.900683333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.892</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4125,16 +4099,14 @@
         <v>3.90035</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4168,16 +4140,14 @@
         <v>3.90085</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.928</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4211,16 +4181,14 @@
         <v>3.901416666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.942</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4254,16 +4222,14 @@
         <v>3.902366666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.975</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4304,7 +4270,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4345,7 +4311,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4386,7 +4352,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4427,7 +4393,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4468,7 +4434,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4509,7 +4475,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4550,7 +4516,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4591,7 +4557,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4632,7 +4598,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4673,7 +4639,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4714,7 +4680,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4755,7 +4721,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4796,7 +4762,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4837,7 +4803,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4878,7 +4844,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4919,7 +4885,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4960,7 +4926,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5001,7 +4967,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5042,7 +5008,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5083,7 +5049,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5124,7 +5090,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5165,7 +5131,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5206,7 +5172,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5247,7 +5213,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5288,7 +5254,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5329,7 +5295,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5370,7 +5336,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5411,7 +5377,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5452,7 +5418,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5493,7 +5459,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5534,7 +5500,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5575,7 +5541,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5616,7 +5582,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5657,7 +5623,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5698,7 +5664,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5739,7 +5705,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5780,7 +5746,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5821,7 +5787,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5862,7 +5828,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5903,7 +5869,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5944,7 +5910,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5985,7 +5951,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6026,7 +5992,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6067,7 +6033,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6108,7 +6074,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6149,7 +6115,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6190,7 +6156,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6231,7 +6197,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6272,7 +6238,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6313,7 +6279,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6354,7 +6320,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6395,7 +6361,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6436,7 +6402,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6477,7 +6443,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6518,7 +6484,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6559,7 +6525,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6600,7 +6566,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6641,7 +6607,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6682,7 +6648,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6723,7 +6689,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6764,7 +6730,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6805,7 +6771,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6846,7 +6812,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6887,7 +6853,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6928,7 +6894,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6969,7 +6935,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7010,7 +6976,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7051,7 +7017,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7092,7 +7058,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7133,7 +7099,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7174,7 +7140,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7215,7 +7181,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7256,7 +7222,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7297,7 +7263,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7338,7 +7304,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7379,7 +7345,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7420,7 +7386,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7461,7 +7427,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7502,7 +7468,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7543,7 +7509,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7584,7 +7550,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7625,7 +7591,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7666,7 +7632,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7707,7 +7673,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7748,7 +7714,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7789,7 +7755,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7830,7 +7796,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7871,7 +7837,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7912,7 +7878,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7953,7 +7919,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7994,7 +7960,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8035,7 +8001,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8076,7 +8042,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8117,7 +8083,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8158,7 +8124,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8199,7 +8165,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8240,7 +8206,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8281,7 +8247,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8322,7 +8288,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8363,7 +8329,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8404,7 +8370,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8445,7 +8411,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8486,7 +8452,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8527,7 +8493,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8568,7 +8534,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8609,7 +8575,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8650,7 +8616,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8691,7 +8657,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8732,7 +8698,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8773,7 +8739,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8814,7 +8780,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8855,7 +8821,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8937,7 +8903,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8978,7 +8944,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9019,7 +8985,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9060,7 +9026,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9101,7 +9067,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9142,7 +9108,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9183,7 +9149,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9224,7 +9190,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9265,7 +9231,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9306,7 +9272,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9347,7 +9313,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9388,7 +9354,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9429,7 +9395,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9470,7 +9436,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9511,7 +9477,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9552,7 +9518,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9593,7 +9559,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9634,7 +9600,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9675,7 +9641,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9716,7 +9682,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9757,7 +9723,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9798,7 +9764,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9839,7 +9805,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9880,7 +9846,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9921,7 +9887,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9962,7 +9928,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10003,7 +9969,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10044,7 +10010,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10085,7 +10051,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10126,7 +10092,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10167,7 +10133,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10208,7 +10174,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10249,7 +10215,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10290,7 +10256,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10331,7 +10297,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10372,7 +10338,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10413,7 +10379,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10454,7 +10420,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10495,7 +10461,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10536,7 +10502,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10577,7 +10543,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10618,7 +10584,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10659,7 +10625,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10700,7 +10666,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10741,7 +10707,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10782,7 +10748,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10823,7 +10789,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10864,7 +10830,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10905,7 +10871,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10946,7 +10912,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10987,7 +10953,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11028,7 +10994,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11069,7 +11035,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11110,7 +11076,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11151,7 +11117,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11192,7 +11158,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11233,7 +11199,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11274,7 +11240,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11315,7 +11281,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11356,7 +11322,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11397,7 +11363,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11438,7 +11404,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11479,7 +11445,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11520,7 +11486,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11561,7 +11527,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11602,7 +11568,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11643,7 +11609,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11684,7 +11650,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11725,7 +11691,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11766,7 +11732,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11807,7 +11773,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11848,7 +11814,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11889,7 +11855,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11930,7 +11896,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11971,7 +11937,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12012,7 +11978,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12053,7 +12019,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12094,7 +12060,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12135,7 +12101,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12176,7 +12142,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12217,7 +12183,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12258,7 +12224,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12299,7 +12265,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12340,7 +12306,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12381,7 +12347,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12422,7 +12388,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12463,7 +12429,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12504,7 +12470,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12545,7 +12511,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12586,7 +12552,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12627,7 +12593,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12668,7 +12634,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12709,7 +12675,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12750,7 +12716,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>3.89</v>
+        <v>3.895</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12758,7 +12724,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>1.072120822622108</v>
+        <v>1.070738125802311</v>
       </c>
     </row>
     <row r="311">
@@ -12822,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest PLY.xlsx
+++ b/BackTest/2020-01-11 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4777792.693699999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4667617.848299999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4667617.848299999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4709267.848299999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4709267.848299999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4706751.230299999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4708445.316499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4706956.919999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4706956.919999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4709831.686599999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4709259.106599999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4709459.288899999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4662990.2925</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4662449.440699999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4688827.615699999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4688827.615699999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4688309.701199999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4688309.701199999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4688652.406299999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4688211.113999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4006276.595399998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3842480.326399998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3585637.681699999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3639123.526099999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3638808.439799998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4761157.883099998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4760854.677899999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-4775588.798899999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4775018.307799999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4774761.700399999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-4775478.090399998</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4775478.090399998</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4775233.722999998</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4920187.653299998</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5052083.883599998</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5051847.905499998</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-5039637.483799999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5076577.760499999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5162570.086499999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5755519.715599999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5830407.383999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5758401.350899999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-5758401.350899999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-5758177.003099999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5758390.343699999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5873781.258699999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-5976184.786699999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-5976184.786699999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-5936642.548099999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6208310.0199</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5851031.0668</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-5850871.2229</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-5504470.9275</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-5854511.6028</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-5753872.872900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-6607281.553000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6607281.553000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6607281.553000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-6599045.343500001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-6603278.687600002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-6595144.113400002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-6583572.389600002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-6628735.071600002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6665485.822400002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6658330.118900002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6658456.118900002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6651658.200600002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6651658.200600002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-6651658.200600002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-6742670.985500002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4510,14 +4510,10 @@
         <v>-9191070.283778707</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4547,19 +4543,11 @@
         <v>-9188381.251978707</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4588,19 +4576,11 @@
         <v>-9188381.251978707</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,19 +4609,11 @@
         <v>-9197497.145778706</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4670,19 +4642,11 @@
         <v>-9197497.145778706</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4711,19 +4675,11 @@
         <v>-9197627.145778706</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4755,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4950,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4986,19 +4906,15 @@
         <v>-9816129.865178706</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.865</v>
       </c>
       <c r="J137" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.865</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5027,17 +4943,17 @@
         <v>-9816129.865178706</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3.907</v>
       </c>
       <c r="J138" t="n">
-        <v>3.895</v>
+        <v>3.865</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5068,17 +4984,17 @@
         <v>-9816129.865178706</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.907</v>
       </c>
       <c r="J139" t="n">
-        <v>3.895</v>
+        <v>3.865</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5109,19 +5025,15 @@
         <v>-9851074.657278705</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.907</v>
       </c>
       <c r="J140" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.907</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5150,17 +5062,17 @@
         <v>-9850465.692278706</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.865</v>
       </c>
       <c r="J141" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5191,17 +5103,17 @@
         <v>-10059306.86067871</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.907</v>
       </c>
       <c r="J142" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5232,13 +5144,13 @@
         <v>-10059177.86067871</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.862</v>
       </c>
       <c r="J143" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5273,13 +5185,13 @@
         <v>-10451609.05207871</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.897</v>
       </c>
       <c r="J144" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5314,13 +5226,13 @@
         <v>-9757974.933578707</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.862</v>
       </c>
       <c r="J145" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5355,13 +5267,13 @@
         <v>-9764073.661378708</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.918</v>
       </c>
       <c r="J146" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5396,13 +5308,13 @@
         <v>-8764073.661378708</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3.862</v>
       </c>
       <c r="J147" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5437,13 +5349,13 @@
         <v>-8763395.506178707</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3.864</v>
       </c>
       <c r="J148" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5478,11 +5390,13 @@
         <v>-8780645.777978707</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.917</v>
+      </c>
       <c r="J149" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5517,11 +5431,13 @@
         <v>-8780645.777978707</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J150" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5556,11 +5472,13 @@
         <v>-8723184.797178708</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J151" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5595,11 +5513,13 @@
         <v>-8719100.203178708</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.906</v>
+      </c>
       <c r="J152" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5634,13 +5554,13 @@
         <v>-8642449.975178707</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.915</v>
       </c>
       <c r="J153" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5675,13 +5595,13 @@
         <v>-8704668.348278707</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.942</v>
       </c>
       <c r="J154" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5716,13 +5636,13 @@
         <v>-8735838.348278707</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.932</v>
       </c>
       <c r="J155" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5757,13 +5677,13 @@
         <v>-8699884.930678707</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.909</v>
       </c>
       <c r="J156" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5798,11 +5718,13 @@
         <v>-8735521.970878707</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.942</v>
+      </c>
       <c r="J157" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5837,11 +5759,13 @@
         <v>-8842170.720878707</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.928</v>
+      </c>
       <c r="J158" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5876,11 +5800,13 @@
         <v>-8842040.720878707</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.871</v>
+      </c>
       <c r="J159" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5915,11 +5841,13 @@
         <v>-8585666.370378707</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.915</v>
+      </c>
       <c r="J160" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5958,7 +5886,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5997,7 +5925,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6036,7 +5964,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6075,7 +6003,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6114,7 +6042,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6153,7 +6081,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6192,7 +6120,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6231,7 +6159,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6270,7 +6198,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6309,7 +6237,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6348,7 +6276,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6387,7 +6315,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6426,7 +6354,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6465,7 +6393,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6504,7 +6432,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6543,7 +6471,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6582,7 +6510,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6621,7 +6549,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6660,7 +6588,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6699,7 +6627,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6738,7 +6666,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6777,7 +6705,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6816,7 +6744,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6855,7 +6783,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6894,7 +6822,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6933,7 +6861,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6972,7 +6900,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7011,7 +6939,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7050,7 +6978,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7089,7 +7017,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7128,7 +7056,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7167,7 +7095,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7206,7 +7134,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7245,7 +7173,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7284,7 +7212,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7323,7 +7251,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7362,7 +7290,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7401,7 +7329,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7440,7 +7368,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7479,7 +7407,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7518,7 +7446,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7557,7 +7485,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7596,7 +7524,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7635,7 +7563,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7674,7 +7602,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7713,7 +7641,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7752,7 +7680,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7791,7 +7719,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7830,7 +7758,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7869,7 +7797,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7908,7 +7836,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7943,11 +7871,11 @@
         <v>-10528470.92867433</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7986,7 +7914,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8025,7 +7953,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8064,7 +7992,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8103,7 +8031,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8142,7 +8070,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8181,7 +8109,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8220,7 +8148,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8259,7 +8187,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8298,7 +8226,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8337,7 +8265,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8376,7 +8304,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8415,7 +8343,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8454,7 +8382,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8493,7 +8421,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8532,7 +8460,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8571,7 +8499,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8610,7 +8538,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8649,7 +8577,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8688,7 +8616,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8727,7 +8655,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8766,7 +8694,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8805,7 +8733,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8844,7 +8772,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8883,7 +8811,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8918,11 +8846,11 @@
         <v>-14874306.01157433</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8957,11 +8885,11 @@
         <v>-14874306.01157433</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8996,11 +8924,11 @@
         <v>-14907196.01157433</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9035,11 +8963,11 @@
         <v>-15001258.71357433</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9074,11 +9002,11 @@
         <v>-15026227.33077433</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9117,7 +9045,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9156,7 +9084,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9195,7 +9123,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9234,7 +9162,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9273,7 +9201,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9312,7 +9240,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9351,7 +9279,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9390,7 +9318,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9429,7 +9357,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9468,7 +9396,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9507,7 +9435,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9546,7 +9474,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9585,7 +9513,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9624,7 +9552,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9663,7 +9591,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9702,7 +9630,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9741,7 +9669,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9780,7 +9708,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9819,7 +9747,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9854,11 +9782,11 @@
         <v>-20156242.86077433</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9893,11 +9821,11 @@
         <v>-20189242.86077433</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9932,11 +9860,11 @@
         <v>-19602885.16337433</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9975,7 +9903,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10014,7 +9942,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10049,11 +9977,11 @@
         <v>-22236121.48027433</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10092,7 +10020,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10131,7 +10059,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10166,11 +10094,11 @@
         <v>-22284011.48027433</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10205,11 +10133,11 @@
         <v>-25266081.01547433</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10248,7 +10176,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10287,7 +10215,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10326,7 +10254,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10365,7 +10293,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10404,7 +10332,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10443,7 +10371,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10482,7 +10410,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10521,7 +10449,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10560,7 +10488,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10599,7 +10527,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10638,7 +10566,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10677,7 +10605,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10716,7 +10644,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10755,7 +10683,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10794,7 +10722,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10833,7 +10761,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10872,7 +10800,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10911,7 +10839,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10950,7 +10878,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10989,7 +10917,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11028,7 +10956,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11067,7 +10995,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11106,7 +11034,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11145,7 +11073,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11184,7 +11112,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11223,7 +11151,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11262,7 +11190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11301,7 +11229,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11340,7 +11268,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11379,7 +11307,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11418,7 +11346,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11457,7 +11385,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11496,7 +11424,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11535,7 +11463,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11574,7 +11502,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11613,7 +11541,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11652,7 +11580,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11691,7 +11619,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11730,7 +11658,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11769,7 +11697,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11808,7 +11736,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11847,7 +11775,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11886,7 +11814,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11925,7 +11853,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11964,7 +11892,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12003,7 +11931,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12042,7 +11970,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12081,7 +12009,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12120,7 +12048,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12159,7 +12087,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12198,7 +12126,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12237,7 +12165,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12276,7 +12204,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12315,7 +12243,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12354,7 +12282,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12393,7 +12321,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12432,7 +12360,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12471,7 +12399,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12510,7 +12438,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12549,7 +12477,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12588,7 +12516,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12627,7 +12555,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12666,7 +12594,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12701,11 +12629,13 @@
         <v>-28484100.50524414</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J334" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12744,7 +12674,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12783,7 +12713,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12822,7 +12752,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12861,7 +12791,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12900,7 +12830,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12939,7 +12869,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12978,7 +12908,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13017,7 +12947,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13056,7 +12986,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13095,7 +13025,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13134,7 +13064,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13173,7 +13103,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13212,7 +13142,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13251,7 +13181,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13290,7 +13220,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13329,7 +13259,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13368,7 +13298,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13407,7 +13337,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13446,7 +13376,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13485,7 +13415,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13524,7 +13454,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13563,7 +13493,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13602,7 +13532,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13641,7 +13571,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13680,7 +13610,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13719,7 +13649,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13758,7 +13688,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13797,7 +13727,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13836,7 +13766,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13875,7 +13805,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13914,7 +13844,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13953,7 +13883,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13992,7 +13922,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14031,7 +13961,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14066,23 +13996,21 @@
         <v>-24498976.23459818</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>3.895</v>
+        <v>3.907</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
-        <v>1.070738125802311</v>
-      </c>
-      <c r="M369" t="n">
-        <v>1.074592074592075</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14107,11 +14035,17 @@
         <v>-25188687.79139818</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14140,11 +14074,17 @@
         <v>-25621679.90639818</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14176,8 +14116,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14209,8 +14155,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14242,8 +14194,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14275,8 +14233,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14308,8 +14272,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14341,8 +14311,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14374,8 +14350,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14407,8 +14389,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14440,8 +14428,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14473,8 +14467,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14506,8 +14506,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +14542,19 @@
         <v>-25707714.78979819</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="J383" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14569,11 +14583,19 @@
         <v>-25707874.78979819</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="J384" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14602,11 +14624,19 @@
         <v>-25767919.11409818</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="J385" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14635,11 +14665,19 @@
         <v>-24893978.12689818</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>4.001</v>
+      </c>
+      <c r="J386" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14671,8 +14709,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14701,11 +14745,19 @@
         <v>-25046827.81789818</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>4.003</v>
+      </c>
+      <c r="J388" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14737,8 +14789,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +14825,19 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>4.002</v>
+      </c>
+      <c r="J390" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14803,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14836,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14869,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14899,11 +14983,17 @@
         <v>-25427830.19759819</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14935,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14968,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14998,11 +15100,17 @@
         <v>-25385297.34209818</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15031,11 +15139,17 @@
         <v>-25596851.70159818</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15067,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15097,11 +15217,17 @@
         <v>-25204129.36529818</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15130,11 +15256,17 @@
         <v>-25204129.36529818</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15163,11 +15295,17 @@
         <v>-25192507.14909818</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15196,11 +15334,17 @@
         <v>-25192507.14909818</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15229,11 +15373,17 @@
         <v>-25192654.84139818</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15265,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15298,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15331,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15364,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15394,11 +15568,17 @@
         <v>-25001269.21609818</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15430,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15463,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15496,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15529,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15559,11 +15763,17 @@
         <v>-25001119.21609818</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15595,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15628,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15661,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15691,17 +15919,23 @@
         <v>-25005928.03189818</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
       <c r="M418" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest PLY.xlsx
+++ b/BackTest/2020-01-11 BackTest PLY.xlsx
@@ -1276,7 +1276,7 @@
         <v>-4713078.632999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4712681.352499998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-4051010.546499998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4006276.595399998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3842480.326399998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3585637.681699999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-3639123.526099999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3638808.439799998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4761157.883099998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4760854.677899999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-4775588.798899999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4775018.307799999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4774761.700399999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4775478.090399998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4775233.722999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4920187.653299998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5052083.883599998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5873781.258699999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-6642057.736178706</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6641852.057678706</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-6558890.238785367</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-6562367.393885368</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-6514586.513285368</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-6557641.073485368</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-6556156.047485368</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-6374105.315285368</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-6367740.057285368</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-6109471.674485368</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-6112762.115485367</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-5861385.547774334</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-5978304.995474334</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-6667692.507974334</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -10945,10 +10945,14 @@
         <v>-27477343.90054414</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="J320" t="n">
+        <v>3.988</v>
+      </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
@@ -10981,8 +10985,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11063,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11099,19 @@
         <v>-27669403.22324414</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3.957</v>
+      </c>
+      <c r="J324" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11140,19 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11149,9 +11187,13 @@
         <v>3.965</v>
       </c>
       <c r="J326" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+        <v>3.988</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,15 +11222,17 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J327" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -11219,15 +11263,17 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J328" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L328" t="n">
@@ -11258,11 +11304,13 @@
         <v>-27669507.22324414</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J329" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11297,11 +11345,13 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J330" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11336,11 +11386,13 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>3.957</v>
+      </c>
       <c r="J331" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11375,11 +11427,13 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>3.957</v>
+      </c>
       <c r="J332" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11414,11 +11468,13 @@
         <v>-28484250.50524414</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3.957</v>
+      </c>
       <c r="J333" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11459,7 +11515,7 @@
         <v>3.946</v>
       </c>
       <c r="J334" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11494,11 +11550,13 @@
         <v>-28484100.50524414</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J335" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11533,11 +11591,13 @@
         <v>-28407170.50524414</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3.989</v>
+      </c>
       <c r="J336" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11572,11 +11632,13 @@
         <v>-28405254.18834414</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J337" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11611,11 +11673,13 @@
         <v>-28433331.96604414</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.999</v>
+      </c>
       <c r="J338" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11650,11 +11714,13 @@
         <v>-28433331.96604414</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J339" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11689,11 +11755,13 @@
         <v>-28434539.08034414</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J340" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11728,11 +11796,13 @@
         <v>-28434413.08034414</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3.974</v>
+      </c>
       <c r="J341" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11767,11 +11837,13 @@
         <v>-28336329.39724414</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J342" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11806,11 +11878,13 @@
         <v>-28286204.39724414</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3.999</v>
+      </c>
       <c r="J343" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -11851,7 +11925,7 @@
         <v>4</v>
       </c>
       <c r="J344" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -11892,7 +11966,7 @@
         <v>4</v>
       </c>
       <c r="J345" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -11933,7 +12007,7 @@
         <v>4.006</v>
       </c>
       <c r="J346" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -11974,7 +12048,7 @@
         <v>4.028</v>
       </c>
       <c r="J347" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12009,11 +12083,13 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J348" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12048,11 +12124,13 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J349" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12087,11 +12165,13 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J350" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12126,11 +12206,13 @@
         <v>-28298435.91364414</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J351" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12165,11 +12247,13 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>4.016</v>
+      </c>
       <c r="J352" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12204,11 +12288,13 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J353" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12243,11 +12329,13 @@
         <v>-28152972.85974414</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>4.028</v>
+      </c>
       <c r="J354" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12288,7 +12376,7 @@
         <v>4.04</v>
       </c>
       <c r="J355" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12329,7 +12417,7 @@
         <v>4.006</v>
       </c>
       <c r="J356" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12370,7 +12458,7 @@
         <v>4.016</v>
       </c>
       <c r="J357" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12411,7 +12499,7 @@
         <v>4.016</v>
       </c>
       <c r="J358" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12452,7 +12540,7 @@
         <v>4.017</v>
       </c>
       <c r="J359" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12493,7 +12581,7 @@
         <v>4.04</v>
       </c>
       <c r="J360" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12534,7 +12622,7 @@
         <v>4.041</v>
       </c>
       <c r="J361" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12569,11 +12657,13 @@
         <v>-28131317.75169818</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>4.073</v>
+      </c>
       <c r="J362" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12608,11 +12698,13 @@
         <v>-28131317.75169818</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>4.063</v>
+      </c>
       <c r="J363" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12647,11 +12739,13 @@
         <v>-27868097.52779818</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>4.063</v>
+      </c>
       <c r="J364" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12686,11 +12780,13 @@
         <v>-27868097.52779818</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J365" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12725,11 +12821,13 @@
         <v>-27625742.24419818</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J366" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12768,7 +12866,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12803,21 +12901,23 @@
         <v>-23636350.22699818</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.965</v>
+        <v>3.988</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
+        <v>1.063204613841525</v>
+      </c>
+      <c r="M368" t="n">
+        <v>1.074592074592075</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12842,17 +12942,11 @@
         <v>-24498976.23459818</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12881,17 +12975,11 @@
         <v>-25188687.79139818</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12920,17 +13008,11 @@
         <v>-25621679.90639818</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12962,14 +13044,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13001,14 +13077,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13040,14 +13110,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13079,14 +13143,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13118,14 +13176,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13157,14 +13209,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13196,14 +13242,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13235,14 +13275,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13274,14 +13308,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13313,14 +13341,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13352,14 +13374,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13391,14 +13407,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13430,14 +13440,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13469,14 +13473,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13508,14 +13506,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13547,14 +13539,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13586,14 +13572,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13625,14 +13605,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13661,19 +13635,13 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
-        <v>1.004331651954603</v>
+        <v>1</v>
       </c>
       <c r="M390" t="inlineStr"/>
     </row>
@@ -13700,7 +13668,7 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13799,7 +13767,7 @@
         <v>-25427830.19759819</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13898,7 +13866,7 @@
         <v>-25385297.34209818</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13931,7 +13899,7 @@
         <v>-25596851.70159818</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13964,7 +13932,7 @@
         <v>-25204259.36529818</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
